--- a/Question_Set2/Role-specific skills/Exploratory Data Analysis.xlsx
+++ b/Question_Set2/Role-specific skills/Exploratory Data Analysis.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You analyze a dataset where each column signifies the attributes of cars. One column is the car price. Another column is the car color. The car color column has three unique values: “Red,” “Black,” and “White” (the dataset contains cars of only these three colors).  How should you reshape the data in the car color column so that you can perform regression using price as a dependent variable?', 'ques_type': 2, 'options': ['Perform a one-hot encoding for any two colors.', 'Perform a one-hot encoding for all three colors.', 'Replace the color with numeric values (i.e., “Red” as “1,” ”Black” as “2,” and “White” as “3”).', 'No transformation is required to perform the regression.'], 'score': 'Perform a one-hot encoding for any two colors.'}, {'title': 'You are visualizing data for a multi-brand retail store. The store sells three brands of mobile phones and wants to know the percentage contribution of sales for each brand for a given time period.Which of the following charts should you use for the visualization?', 'ques_type': 2, 'options': ['Area chart', 'Line chart', 'Pie chart', 'Scatter plot'], 'score': 'Pie chart'}, {'title': 'You have a dataset with 40 independent columns and one dependent column. You decide to drop a few columns to aid stakeholders in determining which attribute they should concentrate on in order to optimize the output. Which of the following techniques should you use to decide which columns to drop?', 'ques_type': 2, 'options': ['A Pearson correlation of all independent columns with the dependent column and drop if the result is less than 0.5.', 'A Pearson correlation of all independent columns with the dependent column and drop if the result is greater than 0.5.', ' A multivariate regression analysis and drop if the p value is less than 0.05 (Given that ɑ = 0.05).', 'A multivariate regression analysis and drop if the p value is greater than 0.05 (Given that ɑ = 0.05).'], 'score': 'A multivariate regression analysis and drop if the p value is greater than 0.05 (Given that ɑ = 0.05).'}, {'title': 'True or False: In the below table, a chi-square test can be used to determine if there is a statistically significant difference in test results between male and female students.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You analyze a dataset where each column signifies the attributes of cars. One column is the car price. Another column is the car color. The car color column has three unique values: \u201cRed,\u201d \u201cBlack,\u201d and \u201cWhite\u201d (the dataset contains cars of only these three colors).  How should you reshape the data in the car color column so that you can perform regression using price as a dependent variable?",
+        "ques_type": 2,
+        "options": [
+            "Perform a one-hot encoding for any two colors.",
+            "Perform a one-hot encoding for all three colors.",
+            "Replace the color with numeric values (i.e., \u201cRed\u201d as \u201c1,\u201d \u201dBlack\u201d as \u201c2,\u201d and \u201cWhite\u201d as \u201c3\u201d).",
+            "No transformation is required to perform the regression."
+        ],
+        "score": "Perform a one-hot encoding for any two colors."
+    },
+    {
+        "title": "You are visualizing data for a multi-brand retail store. The store sells three brands of mobile phones and wants to know the percentage contribution of sales for each brand for a given time period.Which of the following charts should you use for the visualization?",
+        "ques_type": 2,
+        "options": [
+            "Area chart",
+            "Line chart",
+            "Pie chart",
+            "Scatter plot"
+        ],
+        "score": "Pie chart"
+    },
+    {
+        "title": "You have a dataset with 40 independent columns and one dependent column. You decide to drop a few columns to aid stakeholders in determining which attribute they should concentrate on in order to optimize the output. Which of the following techniques should you use to decide which columns to drop?",
+        "ques_type": 2,
+        "options": [
+            "A Pearson correlation of all independent columns with the dependent column and drop if the result is less than 0.5.",
+            "A Pearson correlation of all independent columns with the dependent column and drop if the result is greater than 0.5.",
+            " A multivariate regression analysis and drop if the p value is less than 0.05 (Given that \u0251 = 0.05).",
+            "A multivariate regression analysis and drop if the p value is greater than 0.05 (Given that \u0251 = 0.05)."
+        ],
+        "score": "A multivariate regression analysis and drop if the p value is greater than 0.05 (Given that \u0251 = 0.05)."
+    },
+    {
+        "title": "True or False: In the below table, a chi-square test can be used to determine if there is a statistically significant difference in test results between male and female students.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
